--- a/src/main/resources/TestData/Data.xlsx
+++ b/src/main/resources/TestData/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AdityaPrasad\Desktop\SeleniumScript\Automation\src\main\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4010FB8B-AD83-49E2-B262-3CC3000AE086}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35989344-670C-47A5-ACEB-92C8EE295CEE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="46">
   <si>
     <t>TestName</t>
   </si>
@@ -75,16 +75,94 @@
     <t>Validuser</t>
   </si>
   <si>
-    <t>InValiduser</t>
-  </si>
-  <si>
-    <t>12333</t>
-  </si>
-  <si>
     <t>userqa641@gmail.com</t>
   </si>
   <si>
     <t>124</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>*&amp;^%$#</t>
+  </si>
+  <si>
+    <t>InValidUserID_splchars</t>
+  </si>
+  <si>
+    <t>InValidUserID_string</t>
+  </si>
+  <si>
+    <t>^&amp;*!@$%</t>
+  </si>
+  <si>
+    <t>!@#$%^</t>
+  </si>
+  <si>
+    <t>wsmCourse_invalid</t>
+  </si>
+  <si>
+    <t>9876545</t>
+  </si>
+  <si>
+    <t>wsmCourse_String</t>
+  </si>
+  <si>
+    <t>Qatest</t>
+  </si>
+  <si>
+    <t>Name_splchars</t>
+  </si>
+  <si>
+    <t>accessdays_String</t>
+  </si>
+  <si>
+    <t>accessdays_splchars</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>wsmCourse_splchar</t>
+  </si>
+  <si>
+    <t>deliveryType_invalid</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>deliveryType_string</t>
+  </si>
+  <si>
+    <t>deliveryType_splchars</t>
+  </si>
+  <si>
+    <t>twozeroeight</t>
+  </si>
+  <si>
+    <t>87654323456</t>
+  </si>
+  <si>
+    <t>Websiteurl_number</t>
+  </si>
+  <si>
+    <t>Websiteurl_splchar</t>
+  </si>
+  <si>
+    <t>*&amp;^%$#@!@#$%^&amp;^%$</t>
+  </si>
+  <si>
+    <t>Email_invalid</t>
+  </si>
+  <si>
+    <t>email.com</t>
+  </si>
+  <si>
+    <t>email_blank</t>
+  </si>
+  <si>
+    <t>userqa641@mailinator.com</t>
   </si>
 </sst>
 </file>
@@ -158,13 +236,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -448,16 +532,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.140625" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
@@ -500,7 +584,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
@@ -509,7 +593,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>12</v>
@@ -526,10 +610,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
@@ -537,7 +621,9 @@
       <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
@@ -549,13 +635,433 @@
       </c>
       <c r="I3" s="5" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{7F79D2E0-B1EE-4CA6-91DE-D1C0AB6EA412}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{EFF8A9C2-A453-4DEC-8286-72F56EED1BE8}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{02163089-8ADB-482D-9C63-0D4B2089020E}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{FA3FFB3D-CA1C-4949-A2C2-4905F749E92D}"/>
+    <hyperlink ref="D5" r:id="rId5" xr:uid="{87056414-AA3F-441C-8D89-862A37DB7B2F}"/>
+    <hyperlink ref="E5" r:id="rId6" xr:uid="{3156EF77-5FE1-4A1A-8951-F6978E1E87D9}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{107A7FA1-4172-4B98-8FE6-C990BE0E477B}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{BF6C1620-6652-4F75-89D2-8CCA9368B4D9}"/>
+    <hyperlink ref="E11" r:id="rId9" xr:uid="{328C5C8E-2CB1-43A4-9DE2-01EED4DDB2D6}"/>
+    <hyperlink ref="E12" r:id="rId10" xr:uid="{959E0FD1-C285-4535-BDBE-7F0AB05139BB}"/>
+    <hyperlink ref="E10" r:id="rId11" xr:uid="{ACD183B7-6B6A-465B-B7DD-7648D5948786}"/>
+    <hyperlink ref="E13" r:id="rId12" xr:uid="{8CF6837C-F1CF-4045-9F9E-8538B5A8E3E1}"/>
+    <hyperlink ref="E14" r:id="rId13" xr:uid="{2FB7C0D7-2F2D-4FC2-82F8-1C35F813EF67}"/>
+    <hyperlink ref="E15" r:id="rId14" xr:uid="{51917CB9-1767-414D-AF8E-202B4069D1E2}"/>
+    <hyperlink ref="E16" r:id="rId15" xr:uid="{A4FB0069-4841-442E-B576-88248288694A}"/>
+    <hyperlink ref="E17" r:id="rId16" xr:uid="{D79D1D77-DBD5-4951-A6A5-E5BAAAFAA708}"/>
+    <hyperlink ref="I17" r:id="rId17" xr:uid="{33698C4A-8E07-489E-A358-4BB8CA3248A4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
--- a/src/main/resources/TestData/Data.xlsx
+++ b/src/main/resources/TestData/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AdityaPrasad\Desktop\SeleniumScript\Automation\src\main\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35989344-670C-47A5-ACEB-92C8EE295CEE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4F5C4B-1B47-4127-BB04-73AB625618DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -159,10 +159,10 @@
     <t>email.com</t>
   </si>
   <si>
-    <t>email_blank</t>
-  </si>
-  <si>
     <t>userqa641@mailinator.com</t>
+  </si>
+  <si>
+    <t>Email_blank</t>
   </si>
 </sst>
 </file>
@@ -535,7 +535,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -680,7 +680,7 @@
         <v>23</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>12</v>
@@ -726,7 +726,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>17</v>

--- a/src/main/resources/TestData/Data.xlsx
+++ b/src/main/resources/TestData/Data.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AdityaPrasad\Desktop\SeleniumScript\Automation\src\main\resources\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4F5C4B-1B47-4127-BB04-73AB625618DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{F5F5C5BB-ED49-4D36-BCD0-5FC3336B9BAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="20760" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trialusers" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="45">
   <si>
     <t>TestName</t>
   </si>
@@ -106,9 +102,6 @@
   </si>
   <si>
     <t>wsmCourse_String</t>
-  </si>
-  <si>
-    <t>Qatest</t>
   </si>
   <si>
     <t>Name_splchars</t>
@@ -534,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -668,7 +661,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
@@ -680,7 +673,7 @@
         <v>23</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>12</v>
@@ -697,19 +690,19 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>12</v>
@@ -726,7 +719,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>17</v>
@@ -797,7 +790,7 @@
         <v>16</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>13</v>
@@ -811,7 +804,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>17</v>
@@ -840,7 +833,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>17</v>
@@ -858,7 +851,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>14</v>
@@ -869,7 +862,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>17</v>
@@ -898,28 +891,28 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>34</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>11</v>
@@ -927,7 +920,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>17</v>
@@ -948,7 +941,7 @@
         <v>13</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>11</v>
@@ -956,7 +949,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>17</v>
@@ -985,7 +978,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>17</v>
@@ -1009,36 +1002,36 @@
         <v>14</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
